--- a/SPPSApi/Doc/Template/FS0624_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0624_Export.xlsx
@@ -11,20 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>变更对象日</t>
-  </si>
-  <si>
-    <t>变更号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +59,14 @@
   </si>
   <si>
     <t>生成订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更号(处理日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,12 +416,13 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="9" width="11.44140625" customWidth="1"/>
     <col min="10" max="10" width="19.5546875" customWidth="1"/>
@@ -429,43 +431,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0624_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0624_Export.xlsx
@@ -110,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,57 +419,58 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="13" width="15.6640625" customWidth="1"/>
+    <col min="1" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
+    <col min="10" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="49.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0624_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0624_Export.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,29 +412,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="9" width="18" customWidth="1"/>
-    <col min="10" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="49.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="9" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="49.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -469,9 +464,6 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
